--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79DA5272-CDB3-423A-9396-79720681EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Andrew Lim\Documents\IPI_Technical_Exam\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214B436-B17E-4740-B156-79E6DA0637AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -61,6 +66,87 @@
   </si>
   <si>
     <t>Occupation</t>
+  </si>
+  <si>
+    <t>William R. Johnson</t>
+  </si>
+  <si>
+    <t>2359 Rose AvenueNew Orleans, LA 70129</t>
+  </si>
+  <si>
+    <t>Geiser</t>
+  </si>
+  <si>
+    <t>438-32-XXXX</t>
+  </si>
+  <si>
+    <t>30.161247, -89.80875</t>
+  </si>
+  <si>
+    <t>67 years old</t>
+  </si>
+  <si>
+    <t>Scorpio</t>
+  </si>
+  <si>
+    <t>Crandall's Fine Furniture</t>
+  </si>
+  <si>
+    <t>Nuclear engineer</t>
+  </si>
+  <si>
+    <t>Elizabeth A. Mobley</t>
+  </si>
+  <si>
+    <t>3765 Rockford Mountain LaneDurham, NC 27703</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>240-78-XXXX</t>
+  </si>
+  <si>
+    <t>35.918044, -78.867861</t>
+  </si>
+  <si>
+    <t>58 years old</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>Museum Company</t>
+  </si>
+  <si>
+    <t>Plant manager</t>
+  </si>
+  <si>
+    <t>Patsy A. Clayborn</t>
+  </si>
+  <si>
+    <t>3674 Lake Floyd CircleNewark, DE 19711</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>222-90-XXXX</t>
+  </si>
+  <si>
+    <t>39.67595, -75.757983</t>
+  </si>
+  <si>
+    <t>24 years old</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Value Giant</t>
+  </si>
+  <si>
+    <t>Deck officer</t>
   </si>
 </sst>
 </file>
@@ -96,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,17 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -477,6 +564,102 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>21135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24532</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
+        <v>37037</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Andrew Lim\Documents\IPI_Technical_Exam\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214B436-B17E-4740-B156-79E6DA0637AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A64114-B97D-4A79-B678-B4D8BEDC73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -66,87 +66,6 @@
   </si>
   <si>
     <t>Occupation</t>
-  </si>
-  <si>
-    <t>William R. Johnson</t>
-  </si>
-  <si>
-    <t>2359 Rose AvenueNew Orleans, LA 70129</t>
-  </si>
-  <si>
-    <t>Geiser</t>
-  </si>
-  <si>
-    <t>438-32-XXXX</t>
-  </si>
-  <si>
-    <t>30.161247, -89.80875</t>
-  </si>
-  <si>
-    <t>67 years old</t>
-  </si>
-  <si>
-    <t>Scorpio</t>
-  </si>
-  <si>
-    <t>Crandall's Fine Furniture</t>
-  </si>
-  <si>
-    <t>Nuclear engineer</t>
-  </si>
-  <si>
-    <t>Elizabeth A. Mobley</t>
-  </si>
-  <si>
-    <t>3765 Rockford Mountain LaneDurham, NC 27703</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>240-78-XXXX</t>
-  </si>
-  <si>
-    <t>35.918044, -78.867861</t>
-  </si>
-  <si>
-    <t>58 years old</t>
-  </si>
-  <si>
-    <t>Pisces</t>
-  </si>
-  <si>
-    <t>Museum Company</t>
-  </si>
-  <si>
-    <t>Plant manager</t>
-  </si>
-  <si>
-    <t>Patsy A. Clayborn</t>
-  </si>
-  <si>
-    <t>3674 Lake Floyd CircleNewark, DE 19711</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>222-90-XXXX</t>
-  </si>
-  <si>
-    <t>39.67595, -75.757983</t>
-  </si>
-  <si>
-    <t>24 years old</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t>Value Giant</t>
-  </si>
-  <si>
-    <t>Deck officer</t>
   </si>
 </sst>
 </file>
@@ -182,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -564,102 +482,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1">
-        <v>21135</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>24532</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1">
-        <v>37037</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Andrew Lim\Documents\IPI_Technical_Exam\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A64114-B97D-4A79-B678-B4D8BEDC73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245ADA7E-79BD-4788-8A5D-1C0E2CA0B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -66,6 +66,87 @@
   </si>
   <si>
     <t>Occupation</t>
+  </si>
+  <si>
+    <t>Lawrence V. Landrum</t>
+  </si>
+  <si>
+    <t>1746 Sycamore RoadBrookings, OR 97415</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>544-96-XXXX</t>
+  </si>
+  <si>
+    <t>42.218914, -124.335012</t>
+  </si>
+  <si>
+    <t>36 years old</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Executive secretary</t>
+  </si>
+  <si>
+    <t>Lester E. Fragoso</t>
+  </si>
+  <si>
+    <t>1569 Forest AvenueNew York, NY 10013</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>086-64-XXXX</t>
+  </si>
+  <si>
+    <t>40.630682, -74.027056</t>
+  </si>
+  <si>
+    <t>64 years old</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Joshua Doore</t>
+  </si>
+  <si>
+    <t>Apartment manager</t>
+  </si>
+  <si>
+    <t>Albert F. Cole</t>
+  </si>
+  <si>
+    <t>2764 Barrington CourtBrinkley, AR 72335</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>432-92-XXXX</t>
+  </si>
+  <si>
+    <t>34.882817, -91.205839</t>
+  </si>
+  <si>
+    <t>54 years old</t>
+  </si>
+  <si>
+    <t>Capricorn</t>
+  </si>
+  <si>
+    <t>Sun Television and Appliances</t>
+  </si>
+  <si>
+    <t>Anchor</t>
   </si>
 </sst>
 </file>
@@ -101,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="A1:XFD1048576"/>
@@ -482,6 +564,102 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32729</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22416</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25931</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
